--- a/Saved_file/EM003/2026_04/sap_data.xlsx
+++ b/Saved_file/EM003/2026_04/sap_data.xlsx
@@ -492,29 +492,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-03</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CUST5337</t>
+          <t>CUST9185</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>23272112</v>
+        <v>35738055</v>
       </c>
       <c r="E2" t="n">
-        <v>3557426</v>
+        <v>5893388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-04-15</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CUST3984</t>
+          <t>CUST8974</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>34319443</v>
+        <v>34360290</v>
       </c>
       <c r="E3" t="n">
-        <v>6042460</v>
+        <v>8075733</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -578,17 +578,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -600,29 +600,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CUST1549</t>
+          <t>CUST3441</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>20666835</v>
+        <v>23238171</v>
       </c>
       <c r="E4" t="n">
-        <v>4267197</v>
+        <v>4923102</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -637,12 +637,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -654,25 +654,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST3635</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>20672591</v>
+        <v>35998008</v>
       </c>
       <c r="E5" t="n">
-        <v>4573439</v>
+        <v>6317057</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -713,24 +713,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CUST5445</t>
+          <t>CUST5178</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>31610045</v>
+        <v>15740758</v>
       </c>
       <c r="E6" t="n">
-        <v>6726736</v>
+        <v>2408126</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -762,29 +762,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CUST5797</t>
+          <t>CUST4431</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22180694</v>
+        <v>27939011</v>
       </c>
       <c r="E7" t="n">
-        <v>4584460</v>
+        <v>5941631</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -816,29 +816,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CUST3338</t>
+          <t>CUST6574</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34397855</v>
+        <v>36260791</v>
       </c>
       <c r="E8" t="n">
-        <v>8223359</v>
+        <v>7465538</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -870,25 +870,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CUST3338</t>
+          <t>CUST3924</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>25771333</v>
+        <v>39051231</v>
       </c>
       <c r="E9" t="n">
-        <v>4194730</v>
+        <v>8159922</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -924,29 +924,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CUST7233</t>
+          <t>CUST6415</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38284892</v>
+        <v>38517170</v>
       </c>
       <c r="E10" t="n">
-        <v>8838942</v>
+        <v>8410496</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -978,29 +978,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST9672</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>21871406</v>
+        <v>15719870</v>
       </c>
       <c r="E11" t="n">
-        <v>4523032</v>
+        <v>2537235</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1010,17 +1010,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1032,29 +1032,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST8974</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25226777</v>
+        <v>38525910</v>
       </c>
       <c r="E12" t="n">
-        <v>3829249</v>
+        <v>7655504</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,17 +1064,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1086,29 +1086,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CUST3966</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>22493191</v>
+        <v>33647379</v>
       </c>
       <c r="E13" t="n">
-        <v>4343602</v>
+        <v>8121353</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,17 +1118,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1140,29 +1140,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CUST1759</t>
+          <t>CUST3441</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35468250</v>
+        <v>35899388</v>
       </c>
       <c r="E14" t="n">
-        <v>7769881</v>
+        <v>7996682</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1194,29 +1194,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUST4618</t>
+          <t>CUST5454</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38858938</v>
+        <v>36712203</v>
       </c>
       <c r="E15" t="n">
-        <v>6279546</v>
+        <v>6401953</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1226,12 +1226,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1248,29 +1248,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-19</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CUST2660</t>
+          <t>CUST5454</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>37236944</v>
+        <v>39077294</v>
       </c>
       <c r="E16" t="n">
-        <v>6108902</v>
+        <v>9499414</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1280,17 +1280,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1302,29 +1302,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CUST7208</t>
+          <t>CUST1747</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22057157</v>
+        <v>16143468</v>
       </c>
       <c r="E17" t="n">
-        <v>4765398</v>
+        <v>3727943</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1334,17 +1334,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1356,25 +1356,25 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-08</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CUST4709</t>
+          <t>CUST8417</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>17482437</v>
+        <v>29444013</v>
       </c>
       <c r="E18" t="n">
-        <v>3672103</v>
+        <v>5105243</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1388,17 +1388,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1410,29 +1410,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CUST3338</t>
+          <t>CUST8738</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30433817</v>
+        <v>32698869</v>
       </c>
       <c r="E19" t="n">
-        <v>6226346</v>
+        <v>6630564</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1464,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CUST5888</t>
+          <t>CUST9797</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36982148</v>
+        <v>20830080</v>
       </c>
       <c r="E20" t="n">
-        <v>8094206</v>
+        <v>4304056</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>48</v>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1518,29 +1518,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST5226</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22526824</v>
+        <v>27435040</v>
       </c>
       <c r="E21" t="n">
-        <v>4734504</v>
+        <v>4123413</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1572,29 +1572,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST7022</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33109179</v>
+        <v>24061767</v>
       </c>
       <c r="E22" t="n">
-        <v>6635784</v>
+        <v>4593396</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1609,12 +1609,12 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -1626,29 +1626,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST3578</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>19478305</v>
+        <v>37989093</v>
       </c>
       <c r="E23" t="n">
-        <v>4570255</v>
+        <v>8190971</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1658,17 +1658,17 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1680,25 +1680,25 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CUST4618</t>
+          <t>CUST7022</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>35686439</v>
+        <v>35019818</v>
       </c>
       <c r="E24" t="n">
-        <v>8365514</v>
+        <v>6247435</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -1734,25 +1734,25 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CUST8340</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>24330094</v>
+        <v>26445546</v>
       </c>
       <c r="E25" t="n">
-        <v>3998192</v>
+        <v>5903235</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -1788,29 +1788,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CUST7877</t>
+          <t>CUST6574</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>20347280</v>
+        <v>17368356</v>
       </c>
       <c r="E26" t="n">
-        <v>3341297</v>
+        <v>3058762</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1847,20 +1847,20 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CUST7208</t>
+          <t>CUST6574</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25487576</v>
+        <v>36278355</v>
       </c>
       <c r="E27" t="n">
-        <v>4315623</v>
+        <v>8388876</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1879,12 +1879,12 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -1896,25 +1896,25 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CUST7360</t>
+          <t>CUST9976</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>21223066</v>
+        <v>31684875</v>
       </c>
       <c r="E28" t="n">
-        <v>3647152</v>
+        <v>7335024</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -1950,29 +1950,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2026-04-03</t>
+          <t>2026-04-14</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CUST4342</t>
+          <t>CUST7065</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23275369</v>
+        <v>17014241</v>
       </c>
       <c r="E29" t="n">
-        <v>5034782</v>
+        <v>3090455</v>
       </c>
       <c r="F29" t="n">
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1987,12 +1987,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2009,20 +2009,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST6415</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28856493</v>
+        <v>22077115</v>
       </c>
       <c r="E30" t="n">
-        <v>6149686</v>
+        <v>4193753</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2063,24 +2063,24 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CUST5033</t>
+          <t>CUST9672</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>35752725</v>
+        <v>23141865</v>
       </c>
       <c r="E31" t="n">
-        <v>7023432</v>
+        <v>5277328</v>
       </c>
       <c r="F31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2090,17 +2090,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2112,25 +2112,25 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2026-04-13</t>
+          <t>2026-04-27</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CUST3338</t>
+          <t>CUST8303</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>26627251</v>
+        <v>30843228</v>
       </c>
       <c r="E32" t="n">
-        <v>5697899</v>
+        <v>6986530</v>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2166,29 +2166,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CUST3619</t>
+          <t>CUST4875</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>34500499</v>
+        <v>20842084</v>
       </c>
       <c r="E33" t="n">
-        <v>6040345</v>
+        <v>4460179</v>
       </c>
       <c r="F33" t="n">
         <v>3</v>
       </c>
       <c r="G33" t="n">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2220,29 +2220,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CUST3244</t>
+          <t>CUST5178</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>37883720</v>
+        <v>28957715</v>
       </c>
       <c r="E34" t="n">
-        <v>8579275</v>
+        <v>6639798</v>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2257,12 +2257,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2026-04-09</t>
+          <t>2026-04-20</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CUST5603</t>
+          <t>CUST9797</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>29297272</v>
+        <v>26347905</v>
       </c>
       <c r="E35" t="n">
-        <v>7306953</v>
+        <v>4665838</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2328,29 +2328,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CUST8215</t>
+          <t>CUST1108</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>32428011</v>
+        <v>37477370</v>
       </c>
       <c r="E36" t="n">
-        <v>6619653</v>
+        <v>5680110</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2382,29 +2382,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CUST8215</t>
+          <t>CUST9976</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>24483377</v>
+        <v>26402079</v>
       </c>
       <c r="E37" t="n">
-        <v>4840323</v>
+        <v>6423998</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" t="n">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2414,17 +2414,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2436,29 +2436,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CUST3619</t>
+          <t>CUST9185</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>32698172</v>
+        <v>24904856</v>
       </c>
       <c r="E38" t="n">
-        <v>5236185</v>
+        <v>4797541</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>163</v>
+        <v>61</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2490,29 +2490,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CUST7877</t>
+          <t>CUST9828</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>30909888</v>
+        <v>30358223</v>
       </c>
       <c r="E39" t="n">
-        <v>5814467</v>
+        <v>5631309</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2527,12 +2527,12 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2544,29 +2544,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST3441</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>21469279</v>
+        <v>28107898</v>
       </c>
       <c r="E40" t="n">
-        <v>4033443</v>
+        <v>4508386</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" t="n">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2576,17 +2576,17 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2598,29 +2598,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CUST3244</t>
+          <t>CUST8738</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>30895685</v>
+        <v>21061217</v>
       </c>
       <c r="E41" t="n">
-        <v>6471253</v>
+        <v>3687278</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2630,17 +2630,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -2652,29 +2652,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CUST5603</t>
+          <t>CUST5455</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>18152149</v>
+        <v>25080866</v>
       </c>
       <c r="E42" t="n">
-        <v>3178883</v>
+        <v>6258626</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2706,25 +2706,25 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CUST5224</t>
+          <t>CUST9185</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>31374518</v>
+        <v>33483689</v>
       </c>
       <c r="E43" t="n">
-        <v>6128907</v>
+        <v>8149936</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2738,17 +2738,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -2760,29 +2760,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-28</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CUST7578</t>
+          <t>CUST3924</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>39391958</v>
+        <v>35821173</v>
       </c>
       <c r="E44" t="n">
-        <v>6648289</v>
+        <v>5969285</v>
       </c>
       <c r="F44" t="n">
         <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2814,29 +2814,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CUST2660</t>
+          <t>CUST6990</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>17319612</v>
+        <v>34801425</v>
       </c>
       <c r="E45" t="n">
-        <v>2920560</v>
+        <v>6399497</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G45" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2846,17 +2846,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -2868,25 +2868,25 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUST8215</t>
+          <t>CUST8906</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>24765971</v>
+        <v>39528183</v>
       </c>
       <c r="E46" t="n">
-        <v>6191330</v>
+        <v>8004895</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -2922,29 +2922,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CUST7360</t>
+          <t>CUST4875</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>35208554</v>
+        <v>36457213</v>
       </c>
       <c r="E47" t="n">
-        <v>8444536</v>
+        <v>7343578</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G47" t="n">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -2964,7 +2964,7 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -2976,25 +2976,25 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CUST8358</t>
+          <t>CUST6574</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>26960572</v>
+        <v>34267651</v>
       </c>
       <c r="E48" t="n">
-        <v>5918667</v>
+        <v>8406783</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3008,17 +3008,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3030,25 +3030,25 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CUST5224</t>
+          <t>CUST4791</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>26787185</v>
+        <v>16641984</v>
       </c>
       <c r="E49" t="n">
-        <v>6170460</v>
+        <v>3618370</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3067,12 +3067,12 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3084,29 +3084,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CUST4709</t>
+          <t>CUST5455</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>18857751</v>
+        <v>19379471</v>
       </c>
       <c r="E50" t="n">
-        <v>3938680</v>
+        <v>3624798</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Processing</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3116,17 +3116,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3138,29 +3138,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CUST1555</t>
+          <t>CUST8507</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>32325857</v>
+        <v>18234419</v>
       </c>
       <c r="E51" t="n">
-        <v>6947633</v>
+        <v>3433677</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G51" t="n">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3170,7 +3170,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST7589</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>20391898</v>
+        <v>31061752</v>
       </c>
       <c r="E52" t="n">
-        <v>4897933</v>
+        <v>5143141</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G52" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3224,17 +3224,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3246,29 +3246,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2026-04-05</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CUST1549</t>
+          <t>CUST8417</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>27883795</v>
+        <v>32314538</v>
       </c>
       <c r="E53" t="n">
-        <v>6653453</v>
+        <v>7128675</v>
       </c>
       <c r="F53" t="n">
         <v>2</v>
       </c>
       <c r="G53" t="n">
-        <v>168</v>
+        <v>53</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -3278,17 +3278,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3300,29 +3300,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CUST5971</t>
+          <t>CUST3924</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>23943089</v>
+        <v>22188249</v>
       </c>
       <c r="E54" t="n">
-        <v>5138799</v>
+        <v>3957499</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -3332,17 +3332,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3354,25 +3354,25 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2026-04-16</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CUST5304</t>
+          <t>CUST8738</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>27333071</v>
+        <v>16862987</v>
       </c>
       <c r="E55" t="n">
-        <v>5980244</v>
+        <v>3222916</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3386,17 +3386,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3408,29 +3408,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CUST7578</t>
+          <t>CUST3441</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>35994792</v>
+        <v>33120825</v>
       </c>
       <c r="E56" t="n">
-        <v>6584971</v>
+        <v>5965088</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3445,12 +3445,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3462,25 +3462,25 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>20736625</v>
+        <v>32584370</v>
       </c>
       <c r="E57" t="n">
-        <v>3934867</v>
+        <v>8069160</v>
       </c>
       <c r="F57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3516,25 +3516,25 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUST8215</t>
+          <t>CUST9797</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>32585468</v>
+        <v>30762763</v>
       </c>
       <c r="E58" t="n">
-        <v>5917611</v>
+        <v>6584582</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3553,12 +3553,12 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3570,29 +3570,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2026-04-06</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUST2732</t>
+          <t>CUST8303</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>20738452</v>
+        <v>25762953</v>
       </c>
       <c r="E59" t="n">
-        <v>4091229</v>
+        <v>4589026</v>
       </c>
       <c r="F59" t="n">
         <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -3602,17 +3602,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -3624,25 +3624,25 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST8974</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>30716994</v>
+        <v>32118843</v>
       </c>
       <c r="E60" t="n">
-        <v>4718308</v>
+        <v>6513917</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3656,17 +3656,17 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -3678,29 +3678,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2026-04-29</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CUST7208</t>
+          <t>CUST7589</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>36818633</v>
+        <v>24458202</v>
       </c>
       <c r="E61" t="n">
-        <v>6997541</v>
+        <v>4934204</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3732,29 +3732,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CUST1759</t>
+          <t>CUST3924</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31004685</v>
+        <v>23266082</v>
       </c>
       <c r="E62" t="n">
-        <v>5401433</v>
+        <v>4603985</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G62" t="n">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3786,25 +3786,25 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST4578</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>39570706</v>
+        <v>35409350</v>
       </c>
       <c r="E63" t="n">
-        <v>7141715</v>
+        <v>6101346</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G63" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -3840,29 +3840,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2026-04-30</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CUST7360</t>
+          <t>CUST9185</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30607116</v>
+        <v>39516695</v>
       </c>
       <c r="E64" t="n">
-        <v>5674982</v>
+        <v>8506875</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" t="n">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3882,7 +3882,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2026-04-26</t>
+          <t>2026-04-13</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CUST5797</t>
+          <t>CUST9797</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>15404734</v>
+        <v>37386706</v>
       </c>
       <c r="E65" t="n">
-        <v>2471764</v>
+        <v>6686725</v>
       </c>
       <c r="F65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Processing</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -3948,29 +3948,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CUST7578</t>
+          <t>CUST3578</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>38688465</v>
+        <v>30308131</v>
       </c>
       <c r="E66" t="n">
-        <v>6462760</v>
+        <v>5413613</v>
       </c>
       <c r="F66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3980,17 +3980,17 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4002,25 +4002,25 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CUST8942</t>
+          <t>CUST5226</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>36559490</v>
+        <v>24813649</v>
       </c>
       <c r="E67" t="n">
-        <v>7956788</v>
+        <v>3943367</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4034,12 +4034,12 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4056,25 +4056,25 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-04</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CUST3984</t>
+          <t>CUST5454</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>35756019</v>
+        <v>31446649</v>
       </c>
       <c r="E68" t="n">
-        <v>7192427</v>
+        <v>6948705</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4110,29 +4110,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST8949</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>21378302</v>
+        <v>35242087</v>
       </c>
       <c r="E69" t="n">
-        <v>5216076</v>
+        <v>6668317</v>
       </c>
       <c r="F69" t="n">
         <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -4147,12 +4147,12 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -4164,25 +4164,25 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-05</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CUST1549</t>
+          <t>CUST7004</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>16380492</v>
+        <v>33648123</v>
       </c>
       <c r="E70" t="n">
-        <v>2880708</v>
+        <v>7181983</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4196,17 +4196,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4218,29 +4218,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CUST4342</t>
+          <t>CUST3578</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>36520658</v>
+        <v>16302155</v>
       </c>
       <c r="E71" t="n">
-        <v>7945438</v>
+        <v>3391676</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4272,29 +4272,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2026-04-04</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CUST1549</t>
+          <t>CUST7593</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>17326069</v>
+        <v>31219783</v>
       </c>
       <c r="E72" t="n">
-        <v>3441780</v>
+        <v>7663674</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G72" t="n">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Pending</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4326,29 +4326,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-01</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CUST3244</t>
+          <t>CUST5948</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>15426834</v>
+        <v>31211263</v>
       </c>
       <c r="E73" t="n">
-        <v>2420959</v>
+        <v>7492093</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -4358,17 +4358,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Software</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4380,25 +4380,25 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2026-04-12</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CUST8964</t>
+          <t>CUST7593</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>37579216</v>
+        <v>16569485</v>
       </c>
       <c r="E74" t="n">
-        <v>8459450</v>
+        <v>3104813</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G74" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4412,17 +4412,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4434,25 +4434,25 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2026-04-17</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CUST9931</t>
+          <t>CUST9043</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20200647</v>
+        <v>26838915</v>
       </c>
       <c r="E75" t="n">
-        <v>3549020</v>
+        <v>6218284</v>
       </c>
       <c r="F75" t="n">
         <v>2</v>
       </c>
       <c r="G75" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>Central</t>
         </is>
       </c>
     </row>
@@ -4493,24 +4493,24 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CUST8215</t>
+          <t>CUST9043</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>25570532</v>
+        <v>37736578</v>
       </c>
       <c r="E76" t="n">
-        <v>5291757</v>
+        <v>5886437</v>
       </c>
       <c r="F76" t="n">
         <v>2</v>
       </c>
       <c r="G76" t="n">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4525,12 +4525,12 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4542,25 +4542,25 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2026-04-28</t>
+          <t>2026-04-15</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CUST1555</t>
+          <t>CUST6574</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>26384634</v>
+        <v>31326064</v>
       </c>
       <c r="E77" t="n">
-        <v>4209447</v>
+        <v>5921937</v>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4596,25 +4596,25 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-09</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CUST5945</t>
+          <t>CUST9043</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>38477824</v>
+        <v>35320468</v>
       </c>
       <c r="E78" t="n">
-        <v>7110045</v>
+        <v>8187390</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4638,7 +4638,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4650,29 +4650,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2026-04-25</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CUST4017</t>
+          <t>CUST9797</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>15443006</v>
+        <v>17344444</v>
       </c>
       <c r="E79" t="n">
-        <v>3428448</v>
+        <v>3034898</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4682,7 +4682,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4704,29 +4704,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2026-04-17</t>
+          <t>2026-04-12</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CUST3012</t>
+          <t>CUST7065</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>30371356</v>
+        <v>16637430</v>
       </c>
       <c r="E80" t="n">
-        <v>6287240</v>
+        <v>2937746</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4736,17 +4736,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4758,25 +4758,25 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2026-04-21</t>
+          <t>2026-04-11</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CUST7233</t>
+          <t>CUST5454</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>29138615</v>
+        <v>19342495</v>
       </c>
       <c r="E81" t="n">
-        <v>6735811</v>
+        <v>4188273</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -4795,12 +4795,12 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Credit Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4812,29 +4812,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2026-04-01</t>
+          <t>2026-04-21</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CUST5499</t>
+          <t>CUST5226</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>29550804</v>
+        <v>33667042</v>
       </c>
       <c r="E82" t="n">
-        <v>4927444</v>
+        <v>8212012</v>
       </c>
       <c r="F82" t="n">
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>148</v>
+        <v>14</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Review</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4844,12 +4844,12 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Software</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -4866,25 +4866,25 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2026-04-23</t>
+          <t>2026-04-22</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CUST1759</t>
+          <t>CUST8303</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>35746640</v>
+        <v>19142931</v>
       </c>
       <c r="E83" t="n">
-        <v>7228552</v>
+        <v>4726938</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -4898,17 +4898,17 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Installment</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -4920,25 +4920,25 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2026-04-18</t>
+          <t>2026-04-25</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST3787</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>17485767</v>
+        <v>25685301</v>
       </c>
       <c r="E84" t="n">
-        <v>4137867</v>
+        <v>4529341</v>
       </c>
       <c r="F84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -4952,17 +4952,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Office Supplies</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -4974,25 +4974,25 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2026-04-08</t>
+          <t>2026-04-24</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CUST7233</t>
+          <t>CUST3205</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>21342884</v>
+        <v>23052310</v>
       </c>
       <c r="E85" t="n">
-        <v>4484327</v>
+        <v>4062774</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5011,12 +5011,12 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Credit Card</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5028,29 +5028,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2026-04-11</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CUST2732</t>
+          <t>CUST5455</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>28851511</v>
+        <v>16007263</v>
       </c>
       <c r="E86" t="n">
-        <v>4793975</v>
+        <v>2969540</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G86" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -5060,17 +5060,17 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Electronics</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5082,29 +5082,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2026-04-14</t>
+          <t>2026-04-10</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CUST4530</t>
+          <t>CUST9185</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>23071773</v>
+        <v>31068838</v>
       </c>
       <c r="E87" t="n">
-        <v>5203135</v>
+        <v>5865807</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87" t="n">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Completed</t>
+          <t>Review</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5119,12 +5119,12 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Installment</t>
+          <t>Bank Transfer</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>South</t>
+          <t>North</t>
         </is>
       </c>
     </row>
@@ -5136,25 +5136,25 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2026-04-22</t>
+          <t>2026-04-07</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CUST3963</t>
+          <t>CUST3458</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>26536362</v>
+        <v>26529146</v>
       </c>
       <c r="E88" t="n">
-        <v>4264175</v>
+        <v>5860101</v>
       </c>
       <c r="F88" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5190,25 +5190,25 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2026-04-20</t>
+          <t>2026-04-26</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CUST2660</t>
+          <t>CUST5722</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>17547194</v>
+        <v>38911049</v>
       </c>
       <c r="E89" t="n">
-        <v>4182511</v>
+        <v>7702017</v>
       </c>
       <c r="F89" t="n">
         <v>3</v>
       </c>
       <c r="G89" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5222,17 +5222,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Electronics</t>
+          <t>Furniture</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Bank Transfer</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>International</t>
         </is>
       </c>
     </row>
@@ -5244,29 +5244,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2026-04-07</t>
+          <t>2026-04-23</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CUST8964</t>
+          <t>CUST8738</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>15374602</v>
+        <v>23461376</v>
       </c>
       <c r="E90" t="n">
-        <v>2703009</v>
+        <v>3904185</v>
       </c>
       <c r="F90" t="n">
         <v>2</v>
       </c>
       <c r="G90" t="n">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Pending</t>
+          <t>Completed</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5286,7 +5286,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>International</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5298,25 +5298,25 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2026-04-24</t>
+          <t>2026-04-16</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CUST7360</t>
+          <t>CUST6690</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>28641287</v>
+        <v>24885015</v>
       </c>
       <c r="E91" t="n">
-        <v>5576085</v>
+        <v>4334487</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5330,7 +5330,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Furniture</t>
+          <t>Office Supplies</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>South</t>
         </is>
       </c>
     </row>
@@ -5397,16 +5397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3602602</v>
+        <v>19734621</v>
       </c>
       <c r="E2" t="n">
-        <v>958710</v>
+        <v>2673106</v>
       </c>
     </row>
     <row r="3">
@@ -5416,16 +5416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>76.7</v>
+        <v>75.5</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>11021892</v>
+        <v>4735849</v>
       </c>
       <c r="E3" t="n">
-        <v>2437582</v>
+        <v>967043</v>
       </c>
     </row>
     <row r="4">
@@ -5435,16 +5435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>82.2</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2893267</v>
+        <v>2431325</v>
       </c>
       <c r="E4" t="n">
-        <v>734444</v>
+        <v>347251</v>
       </c>
     </row>
     <row r="5">
@@ -5473,16 +5473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3009503</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>881577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5492,16 +5492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.40000000000001</v>
+        <v>86.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1722191</v>
+        <v>6424314</v>
       </c>
       <c r="E7" t="n">
-        <v>423036</v>
+        <v>924692</v>
       </c>
     </row>
     <row r="8">
@@ -5511,16 +5511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.2</v>
+        <v>89.3</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>6011208</v>
+        <v>7841828</v>
       </c>
       <c r="E8" t="n">
-        <v>783858</v>
+        <v>1553345</v>
       </c>
     </row>
     <row r="9">
@@ -5530,16 +5530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.09999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>20651295</v>
+        <v>17587752</v>
       </c>
       <c r="E9" t="n">
-        <v>2191079</v>
+        <v>2684446</v>
       </c>
     </row>
     <row r="10">
@@ -5549,16 +5549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.8</v>
+        <v>86.2</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7240189</v>
+        <v>6842310</v>
       </c>
       <c r="E10" t="n">
-        <v>1000848</v>
+        <v>1923662</v>
       </c>
     </row>
     <row r="11">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.59999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>11329223</v>
+        <v>18564723</v>
       </c>
       <c r="E11" t="n">
-        <v>2375321</v>
+        <v>2771254</v>
       </c>
     </row>
     <row r="12">
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>74.2</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>9314426</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1636239</v>
       </c>
     </row>
     <row r="13">
@@ -5606,16 +5606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6426686</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1780254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5625,16 +5625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.5</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>2039792</v>
+        <v>11320554</v>
       </c>
       <c r="E14" t="n">
-        <v>374589</v>
+        <v>1478424</v>
       </c>
     </row>
     <row r="15">
@@ -5644,16 +5644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4552086</v>
+        <v>6394174</v>
       </c>
       <c r="E15" t="n">
-        <v>842188</v>
+        <v>1174954</v>
       </c>
     </row>
     <row r="16">
@@ -5663,16 +5663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>86.3</v>
+        <v>81.7</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>3495266</v>
+        <v>15952171</v>
       </c>
       <c r="E16" t="n">
-        <v>438911</v>
+        <v>4620607</v>
       </c>
     </row>
     <row r="17">
@@ -5682,16 +5682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.40000000000001</v>
+        <v>89</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>14516299</v>
+        <v>8664658</v>
       </c>
       <c r="E17" t="n">
-        <v>2833922</v>
+        <v>1858906</v>
       </c>
     </row>
     <row r="18">
@@ -5701,16 +5701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>3457143</v>
+        <v>6028256</v>
       </c>
       <c r="E18" t="n">
-        <v>901482</v>
+        <v>1485318</v>
       </c>
     </row>
     <row r="19">
@@ -5739,16 +5739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>67.5</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>939651</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>103758</v>
       </c>
     </row>
     <row r="21">
@@ -5758,16 +5758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>78.3</v>
+        <v>89</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1809980</v>
+        <v>5075706</v>
       </c>
       <c r="E21" t="n">
-        <v>296279</v>
+        <v>1245058</v>
       </c>
     </row>
     <row r="22">
@@ -5777,16 +5777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>83.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C22" t="n">
         <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>11513832</v>
+        <v>8146790</v>
       </c>
       <c r="E22" t="n">
-        <v>1743713</v>
+        <v>2217573</v>
       </c>
     </row>
     <row r="23">
@@ -5796,16 +5796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>87.90000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>4731499</v>
+        <v>4315730</v>
       </c>
       <c r="E23" t="n">
-        <v>911549</v>
+        <v>599474</v>
       </c>
     </row>
     <row r="24">
@@ -5815,16 +5815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>86.90000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
-        <v>21357458</v>
+        <v>9234474</v>
       </c>
       <c r="E24" t="n">
-        <v>2736065</v>
+        <v>1817381</v>
       </c>
     </row>
     <row r="25">
@@ -5834,16 +5834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.40000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>4808653</v>
+        <v>4289460</v>
       </c>
       <c r="E25" t="n">
-        <v>915153</v>
+        <v>885459</v>
       </c>
     </row>
     <row r="26">
@@ -5853,16 +5853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5909551</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1185252</v>
       </c>
     </row>
     <row r="27">
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>74.5</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>8917427</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1554090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -5891,16 +5891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.7</v>
+        <v>82.5</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>4705943</v>
+        <v>10625356</v>
       </c>
       <c r="E28" t="n">
-        <v>1209544</v>
+        <v>2211139</v>
       </c>
     </row>
     <row r="29">
@@ -5910,16 +5910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.7</v>
+        <v>87</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>6082102</v>
+        <v>14172135</v>
       </c>
       <c r="E29" t="n">
-        <v>1600333</v>
+        <v>3643544</v>
       </c>
     </row>
     <row r="30">
@@ -5929,16 +5929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.5</v>
+        <v>87.3</v>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>19103230</v>
+        <v>13213438</v>
       </c>
       <c r="E30" t="n">
-        <v>3670598</v>
+        <v>1584359</v>
       </c>
     </row>
     <row r="31">
@@ -5948,16 +5948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.7</v>
+        <v>81.3</v>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>4419066</v>
+        <v>9567864</v>
       </c>
       <c r="E31" t="n">
-        <v>487403</v>
+        <v>1977966</v>
       </c>
     </row>
   </sheetData>
